--- a/assets/2024/giocatori.xlsx
+++ b/assets/2024/giocatori.xlsx
@@ -463,3150 +463,3014 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Michele Merighi</t>
+          <t>Federico Baita</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clitoriders</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Iena Ridens</t>
-        </is>
-      </c>
+          <t>A.C. Denti</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Carlo Stedile</t>
+          <t>Nicolò Marzari</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAI UNA GIOIA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Welcome To Paradise</t>
-        </is>
-      </c>
+          <t>A.C. Denti</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Federico Mortillaro</t>
+          <t>Mario Grifeo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clitoriders</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Morte Nera</t>
-        </is>
-      </c>
+          <t>A.C. Denti</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mattia Baldessarini</t>
+          <t>Maverick Bertolini</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Shark Attack</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>L’assassino Cerebrale</t>
-        </is>
-      </c>
+          <t>A.C. Denti</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Federico Andreis</t>
+          <t>Michael Bertè</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>iMontagna</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Distinto Signor Rabbioso</t>
-        </is>
-      </c>
+          <t>A.C. Denti</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Leonardo Parisi</t>
+          <t>Matteo Manconi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MediaserT</t>
+          <t>Avanzi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Il Fratello Di Ron Weasley</t>
+          <t>Mancuso</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Andrea Conzatti</t>
+          <t>Michele Ruele</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FC Savignano</t>
+          <t>Avanzi</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Caldaia</t>
+          <t>Ruy Mysterio</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Marco Sala</t>
+          <t>Andrea Barozzi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>iMontagna</t>
+          <t>Avanzi</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cane Rognoso</t>
+          <t>Javier Zanetti Della Statale 12</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Luca Frasca</t>
+          <t>Alessandro Zandonai</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Clitoriders</t>
+          <t>Avanzi</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Delirium Tremens</t>
+          <t>L'uomo Che Sussurrava Ai Ghepardi</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Edoardo Pomarolli</t>
+          <t>Lorenzo Barozzi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modium</t>
+          <t>Avanzi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Il Bello Della Piof</t>
+          <t>Tagliagole Canadese</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Marco Sartorelli</t>
+          <t>Antonio Calabrò</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modium</t>
+          <t>Avanzi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Playboy Della Busa</t>
+          <t>Totò Sapore</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Matteo Diener</t>
+          <t>Armando Perottoni</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>U.S. Guarna</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Nemico Del Popolo</t>
-        </is>
-      </c>
+          <t>Avanzi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Federico Pomarolli</t>
+          <t>Matteo Tatarella</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modium</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Principe Guerriero</t>
-        </is>
-      </c>
+          <t>Bayern Mona</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Leonardo Viola</t>
+          <t>Francesco Pizzini</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Shark Attack</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Uomo Informe 2.0</t>
-        </is>
-      </c>
+          <t>Bayern Mona</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Matteo Manconi</t>
+          <t>Nicoló Gelmini</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Avanzi</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Mancuso</t>
-        </is>
-      </c>
+          <t>Bayern Mona</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Andrea Bertolini</t>
+          <t>Davide Sannicoló</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modium</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Bomber Berto</t>
-        </is>
-      </c>
+          <t>Bayern Mona</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mattia Festi</t>
+          <t>Paolo Salvetti</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Shark Attack</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Plastic Man</t>
-        </is>
-      </c>
+          <t>Bayern Mona</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Andrea Giordani</t>
+          <t>Sebastiano Zoller</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Clitoriders</t>
+          <t>CGB Gamberoni</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Orso Bruno</t>
+          <t>Carenza Di Spritz</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Alessandro Maffei</t>
+          <t>Luca Perenzoni</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FC Savignano</t>
+          <t>CGB Gamberoni</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Il Fondatore Di Social Network</t>
+          <t>Chernobyl</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gober Andrea</t>
+          <t>Alessandro Zeni</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>U.S. Guarna</t>
+          <t>CGB Gamberoni</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Scintillio</t>
+          <t>Ultimo Samurai</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Stefano Galvagni</t>
+          <t>Gabriele Gottardi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Clitoriders</t>
+          <t>CGB Gamberoni</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mentadent</t>
+          <t>Centomila Cammelli</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Federico Ignaccolo</t>
+          <t>Federico Zoller</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sughi ebbasta</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Fidel - Cerci Della Busa</t>
-        </is>
-      </c>
+          <t>CGB Gamberoni</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Stefano Tita</t>
+          <t>Marco Gerola</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Clitoriders</t>
+          <t>CGB Gamberoni</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Giannizzero</t>
+          <t>Geronimo Stilton</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Daniele Dalbosco</t>
+          <t>Thomas Perenzoni</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>iMontagna</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Cresta De Cunel</t>
-        </is>
-      </c>
+          <t>CGB Gamberoni</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Stefano Pizzini</t>
+          <t>Pietro Tasini</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MediaserT</t>
+          <t>Clandes-Team</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Neanderthal</t>
+          <t>Torton</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Thomas Debiasi</t>
+          <t>Pietro Zandonai</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAI UNA GIOIA</t>
+          <t>Clandes-Team</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Organizzatore Di Eventi Brutti</t>
+          <t>Boy Scout</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Riccardo Versini</t>
+          <t>Tommaso Canepel</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Modium</t>
+          <t>Clandes-Team</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pertica Della Piof</t>
+          <t>Ridge Forrester</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Alessio Farinati</t>
+          <t>Lorenzo Canepel</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pinguini Trentini</t>
+          <t>Clandes-Team</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Proteina</t>
+          <t>Giardiniere</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Federico Manica</t>
+          <t>Riccardo Brunelli</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>iMontagna</t>
+          <t>Clandes-Team</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Daniel Ricciardo</t>
+          <t>Insetto Stecco</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sebastiano Zoller</t>
+          <t>Gabriele Piamarta</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CGB Gamberoni</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Carenza Di Spritz</t>
-        </is>
-      </c>
+          <t>Clandes-Team</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Giacomo De Zambotti</t>
+          <t>Daniele Foroni</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FC Savignano</t>
+          <t>Clandes-Team</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ferro Da Stiro</t>
+          <t>Swag Foroni</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Riccardo Zaffoni</t>
+          <t>Michele Merighi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>U.S. Guarna</t>
+          <t>Clitoriders</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lugherim</t>
+          <t>Iena Ridens</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Elia Battisti</t>
+          <t>Federico Mortillaro</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>U.S. Guarna</t>
+          <t>Clitoriders</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Boiler</t>
+          <t>Morte Nera</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Eduardo Grazioli</t>
+          <t>Luca Frasca</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FC Savignano</t>
+          <t>Clitoriders</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>L'indesiderabile Numero 1</t>
+          <t>Delirium Tremens</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Alberto Cerisara</t>
+          <t>Andrea Giordani</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Shark Attack</t>
+          <t>Clitoriders</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>L’uomo Che Ha Mangiato Justin Bieber</t>
+          <t>Orso Bruno</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Luca Barozzi</t>
+          <t>Stefano Galvagni</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Modium</t>
+          <t>Clitoriders</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lupin</t>
+          <t>Mentadent</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Nicolas Giordani</t>
+          <t>Stefano Tita</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FC Savignano</t>
+          <t>Clitoriders</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tiburon</t>
+          <t>Giannizzero</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Davide Manica</t>
+          <t>Giovanni Giusto</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pinguini Trentini</t>
+          <t>Demobusters</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pala Eolica</t>
+          <t>Plasmon</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Luca Perenzoni</t>
+          <t>Elia Tomasoni</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CGB Gamberoni</t>
+          <t>Demobusters</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Chernobyl</t>
+          <t>T Come Tigro</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Luca Tonolli</t>
+          <t>Gabriel Melis</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sughi ebbasta</t>
+          <t>Demobusters</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mark Renton</t>
+          <t>Mano A Reazione</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Matteo Lanaro</t>
+          <t>Riccardo Zeni</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Modium</t>
+          <t>Demobusters</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Il Cacciatore Del Sole</t>
+          <t>Terzo Porcellino</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Armando Perottoni</t>
+          <t>Samuele Rosà</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Avanzi</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>Demobusters</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Maranza</t>
+        </is>
+      </c>
       <c r="D43" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Andrea Barozzi</t>
+          <t>Roberto Barozzi</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Avanzi</t>
+          <t>Demobusters</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Javier Zanetti Della Statale 12</t>
+          <t>Divin Codino</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Andrea Pedrotti</t>
+          <t>Matteo Gatti</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>iMontagna</t>
+          <t>Demobusters</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Medioman</t>
+          <t>Soldatino Di Piombo</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Alessio Bragagna</t>
+          <t>Daniele Ruzzenenti</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FC Savignano</t>
+          <t>Demobusters</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Nice Try</t>
+          <t>Hard Disk</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nadir Chtioui</t>
+          <t>Lorenzo Scottini</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAI UNA GIOIA</t>
+          <t>Demobusters</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Casablanca</t>
+          <t>Eldorado Shomurodov</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Alessandro Zeni</t>
+          <t>Alessandro Comper</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CGB Gamberoni</t>
+          <t>F.C. Gorillaz</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ultimo Samurai</t>
+          <t>Fantic Caballero</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Randy Cobbinah</t>
+          <t>Nicolò Speziali</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAI UNA GIOIA</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>West Coast</t>
-        </is>
-      </c>
+          <t>F.C. Gorillaz</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Matteo Pilati</t>
+          <t>Giovanni Torboli</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pinguini Trentini</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Ponzio Pilati</t>
-        </is>
-      </c>
+          <t>F.C. Gorillaz</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Andrea Anzelini</t>
+          <t>Andrea Pedrotti</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MediaserT</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Tunnel Del Vento</t>
-        </is>
-      </c>
+          <t>F.C. Gorillaz</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Giacomo Gasparini</t>
+          <t>Samuele Maffei</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MAI UNA GIOIA</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Iceman</t>
-        </is>
-      </c>
+          <t>F.C. Gorillaz</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nicola Togni</t>
+          <t>Leonardo Adami</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RSA United</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Circo Togni</t>
-        </is>
-      </c>
+          <t>F.C. Gorillaz</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Federico Leonardi</t>
+          <t>Nicolò Gentile</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sughi ebbasta</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Pan Carrè</t>
-        </is>
-      </c>
+          <t>F.C. Gorillaz</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Amedeo Malesardi</t>
+          <t>Alessandro Ruele</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FC Savignano</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Nono Comandamento</t>
-        </is>
-      </c>
+          <t>F.C. Gorillaz</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Gabriele Gottardi</t>
+          <t>Alessandro Zamboni</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CGB Gamberoni</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Centomila Cammelli</t>
-        </is>
-      </c>
+          <t>F.C. Julia</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Matteo Brigo</t>
+          <t>Francesco Vettori</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Pinguini Trentini</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Euro Brigo</t>
-        </is>
-      </c>
+          <t>F.C. Julia</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Michele Parisi</t>
+          <t>Dario Cappelletti</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MediaserT</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Ron Weasley</t>
-        </is>
-      </c>
+          <t>F.C. Julia</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Matteo Zanlucchi</t>
+          <t>Federico Vivaldi</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SBARX</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Biker Mice</t>
-        </is>
-      </c>
+          <t>F.C. Julia</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Daniel Pedrotti</t>
+          <t>Filippo Simoncelli</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>iMontagna</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Cugino Di Medioman</t>
-        </is>
-      </c>
+          <t>F.C. Julia</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Alessandro Fait</t>
+          <t>Pietro Dallabernardina</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RSA United</t>
+          <t>F.C. Julia</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fait Club</t>
+          <t>Bidone Dell'umido</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Pietro Tasini</t>
+          <t>Andrea Potrich</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Clandes-Team</t>
+          <t>F.C. Julia</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Torton</t>
+          <t>Brasiliano Bianco</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Niccolò Orsi</t>
+          <t>Matteo Calcinardi</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SBARX</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Jj4</t>
-        </is>
-      </c>
+          <t>F.C. Sala Giardini</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Pietro Zandonai</t>
+          <t>Massimiliano Rossi</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Clandes-Team</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Boy Scout</t>
-        </is>
-      </c>
+          <t>F.C. Sala Giardini</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Alessandro Zandonai</t>
+          <t>Giovanni Frizzera</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Avanzi</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>L'uomo Che Sussurrava Ai Ghepardi</t>
-        </is>
-      </c>
+          <t>F.C. Sala Giardini</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Thomas Cavagna</t>
+          <t>Gianni Sala</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MAI UNA GIOIA</t>
+          <t>F.C. Sala Giardini</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Val Di Gresta</t>
+          <t>Gianluca Grignani</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Matteo Bazzanella</t>
+          <t>Halzyd Pupuleku</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hellas Madonna</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Torgo Nudho</t>
-        </is>
-      </c>
+          <t>F.C. Sala Giardini</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Federico Zoller</t>
+          <t>Andrea Conzatti</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CGB Gamberoni</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>FC Savignano</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Caldaia</t>
+        </is>
+      </c>
       <c r="D68" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Alessandro Zamboni</t>
+          <t>Alessandro Maffei</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>F.C. Julia</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>FC Savignano</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Il Fondatore Di Social Network</t>
+        </is>
+      </c>
       <c r="D69" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Maickol Azocar</t>
+          <t>Giacomo De Zambotti</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MAI UNA GIOIA</t>
+          <t>FC Savignano</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nastro Isolante</t>
+          <t>Ferro Da Stiro</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Raffaele Prezzi</t>
+          <t>Eduardo Grazioli</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hellas Madonna</t>
+          <t>FC Savignano</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>La Cura</t>
+          <t>L'indesiderabile Numero 1</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Filippo Benetti</t>
+          <t>Nicolas Giordani</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>I Magnifici</t>
+          <t>FC Savignano</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fungo Atomico</t>
+          <t>Tiburon</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Daniele Feltrinelli</t>
+          <t>Alessio Bragagna</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sughi ebbasta</t>
+          <t>FC Savignano</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Transiberiana</t>
+          <t>Nice Try</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Francesco Russo</t>
+          <t>Amedeo Malesardi</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>FC Savignano</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Nono Comandamento</t>
+        </is>
+      </c>
       <c r="D74" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Lorenzo Barozzi</t>
+          <t>Richard Spagnolli</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Avanzi</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Tagliagole Canadese</t>
-        </is>
-      </c>
+          <t>FC Schalke 104</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Matteo Zanini</t>
+          <t>Alessio Giordano</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RSA United</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Il Meccanico</t>
-        </is>
-      </c>
+          <t>FC Schalke 104</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Antonio Calabrò</t>
+          <t>Filippo Bais</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Avanzi</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Totò Sapore</t>
-        </is>
-      </c>
+          <t>FC Schalke 104</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Vito Incandela</t>
+          <t>Andrea Amendola</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Tritolo Puro</t>
-        </is>
-      </c>
+          <t>FC Schalke 104</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Samuele Kettamier</t>
+          <t>Pietro Di Liberto</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SBARX</t>
+          <t>FC Schalke 104</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Marco Heidempergher</t>
+          <t>Antonio Dominici</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>U.S. Guarna</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Candalporco</t>
-        </is>
-      </c>
+          <t>FC Schalke 104</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Simone Martini</t>
+          <t>Davide Ganganelli</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Donatella Rettore</t>
-        </is>
-      </c>
+          <t>FC Schalke 104</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Francesco Vettori</t>
+          <t>Lapo Pinzi</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>F.C. Julia</t>
+          <t>FC Schalke 104</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Davide Raffaelli</t>
+          <t>Carlo Pomarolli</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MediaserT</t>
+          <t>Fc Wanda Tim</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Giraffa Di Frassino</t>
+          <t>Bettino Craxi</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Alessandro Comper</t>
+          <t>Stefano Rosina</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>F.C. Gorillaz</t>
+          <t>Fc Wanda Tim</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Fantic Caballero</t>
+          <t>Gpl</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Federico Fasanelli</t>
+          <t>Francesco Amadori</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Herta Vernello</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>Fc Wanda Tim</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Gasolio Artico</t>
+        </is>
+      </c>
       <c r="D85" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Tommaso Canepel</t>
+          <t>Emanuele Valduga</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Clandes-Team</t>
+          <t>Fc Wanda Tim</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ridge Forrester</t>
+          <t>Fiammifero</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Enrico Bordignon</t>
+          <t>Mattia Spagnolli</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Pinguini Trentini</t>
+          <t>Fc Wanda Tim</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ormone Impazzito</t>
+          <t>Dottor Nowzaradan</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Giovanni Giusto</t>
+          <t>Marco Bertolini</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Demobusters</t>
+          <t>Fc Wanda Tim</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Plasmon</t>
+          <t>Macchia Di Gasolio</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Nicolò Speziali</t>
+          <t>Gentian Capa</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>F.C. Gorillaz</t>
+          <t>FC. Stallions</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Emanuele Miorandi</t>
+          <t>Giorgio Raffaelli</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sughi ebbasta</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Re Di Bastoni</t>
-        </is>
-      </c>
+          <t>FC. Stallions</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Andrea Togni</t>
+          <t>Blendi Capa</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>RSA United</t>
+          <t>FC. Stallions</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Lorenzo Canepel</t>
+          <t>Antonio Emma</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Clandes-Team</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Giardiniere</t>
-        </is>
-      </c>
+          <t>FC. Stallions</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Jacopo Ricci</t>
+          <t>Alessio Koleci</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Hellas Madonna</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Orso Balosso</t>
-        </is>
-      </c>
+          <t>FC. Stallions</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Giovanni Torboli</t>
+          <t>Kevin Vela</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>F.C. Gorillaz</t>
+          <t>FC. Stallions</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Alessio Zandonai</t>
+          <t>Francesco Russo</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SBARX</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Gabriele Brentari</t>
+          <t>Vito Incandela</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Shark Attack</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Mocio Vileda</t>
+          <t>Tritolo Puro</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Luca Giordani</t>
+          <t>Simone Martini</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Shark Attack</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Lo Chef Più In Forma D’europa</t>
+          <t>Donatella Rettore</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Riccardo Brunelli</t>
+          <t>Tommaso Bruschetti</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Clandes-Team</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Insetto Stecco</t>
+          <t>Sindaco</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Andrea Aste</t>
+          <t>Michele Pellini</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Pinguini Trentini</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>3 Ombre</t>
-        </is>
-      </c>
+          <t>Fel Lazio</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Gabriele Piamarta</t>
+          <t>Giovanni Bertolini</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Clandes-Team</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
+          <t>Fel Lazio</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Paese Dei Balocchi</t>
+        </is>
+      </c>
       <c r="D100" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Andrea Pedrotti</t>
+          <t>Ivan Borella</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>F.C. Gorillaz</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Davide Fontana</t>
+          <t>Matteo Bazzanella</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SBARX</t>
+          <t>Hellas Madonna</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Ginew</t>
+          <t>Torgo Nudho</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Nicholas Marzadro</t>
+          <t>Raffaele Prezzi</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SBARX</t>
+          <t>Hellas Madonna</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sgnappa Secca</t>
+          <t>La Cura</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Federico Nicolodi</t>
+          <t>Jacopo Ricci</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>U.S. Guarna</t>
+          <t>Hellas Madonna</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Notti Magiche</t>
+          <t>Orso Balosso</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Carlo Pomarolli</t>
+          <t>Davide Rosà</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Fc Wanda Tim</t>
+          <t>Hellas Madonna</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Bettino Craxi</t>
+          <t>Soldato Semplice Nemecsek</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Michele Leonardi</t>
+          <t>Alessandro Galvagni</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sughi ebbasta</t>
+          <t>Hellas Madonna</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Pesto Tigullio</t>
+          <t>Lo Stalker</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Michele Ruele</t>
+          <t>Mattia Penasa</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Avanzi</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Ruy Mysterio</t>
-        </is>
-      </c>
+          <t>Hellas Madonna</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Marco Gerola</t>
+          <t>Filippo Maraner</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CGB Gamberoni</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Geronimo Stilton</t>
-        </is>
-      </c>
+          <t>Hellas Madonna</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Dario Cappelletti</t>
+          <t>Federico Fasanelli</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>F.C. Julia</t>
+          <t>Herta Vernello</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Federico Vivaldi</t>
+          <t>Matteo Simoncelli</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>F.C. Julia</t>
+          <t>Herta Vernello</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Filippo Simoncelli</t>
+          <t>Nicola Bianchi</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>F.C. Julia</t>
+          <t>Herta Vernello</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Pietro Dallabernardina</t>
+          <t>Lorenzo Canali</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>F.C. Julia</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Bidone Dell'umido</t>
-        </is>
-      </c>
+          <t>Herta Vernello</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Daniele Foroni</t>
+          <t>Giacomo Bongiovanni</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Clandes-Team</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Swag Foroni</t>
-        </is>
-      </c>
+          <t>Herta Vernello</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Elia Tomasoni</t>
+          <t>Oriam Galli</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Demobusters</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>T Come Tigro</t>
-        </is>
-      </c>
+          <t>Herta Vernello</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Martino Tamoni</t>
+          <t>Alessandro Tengattini</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>U.S. Guarna</t>
+          <t>Herta Vernello</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Samuele Maffei</t>
+          <t>Rivjo Fiora</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>F.C. Gorillaz</t>
+          <t>Herta Vernello</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Andrea Manfredi</t>
+          <t>Filippo Benetti</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Pinguini Trentini</t>
+          <t>I Magnifici</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Psyco</t>
+          <t>Fungo Atomico</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Marco Mutinelli</t>
+          <t>Danny Giordani</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>iMontagna</t>
+          <t>I Magnifici</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Urbano Il Vigile</t>
+          <t>Paculto Deprima</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Matteo Mazzola</t>
+          <t>Lorenzo Zuani</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MediaserT</t>
+          <t>I Magnifici</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Gennaro Bullo</t>
+          <t>Il Piediatra</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Leonardo Adami</t>
+          <t>Guglielmo Caroli</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>F.C. Gorillaz</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
+          <t>I Magnifici</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Ivan Bogdanov</t>
+        </is>
+      </c>
       <c r="D120" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Stefano Mattioli</t>
+          <t>Alberto Simoncelli</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MAI UNA GIOIA</t>
+          <t>I Magnifici</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Panchinaro D'oro</t>
+          <t>Iginio Massari</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Davide Rosà</t>
+          <t>Elia Barozzi</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Hellas Madonna</t>
+          <t>I Magnifici</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Soldato Semplice Nemecsek</t>
+          <t>Bjorn Borg</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Tommaso Bruschetti</t>
+          <t>Simone Schonsberg</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>I Magnifici</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sindaco</t>
+          <t>Polis-tirolo</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Matteo Simoncelli</t>
+          <t>Federico Andreis</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Herta Vernello</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
+          <t>iMontagna</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Distinto Signor Rabbioso</t>
+        </is>
+      </c>
       <c r="D124" t="n">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Alessandro Galvagni</t>
+          <t>Marco Sala</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Hellas Madonna</t>
+          <t>iMontagna</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Lo Stalker</t>
+          <t>Cane Rognoso</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Michele Pellini</t>
+          <t>Daniele Dalbosco</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
+          <t>iMontagna</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Cresta De Cunel</t>
+        </is>
+      </c>
       <c r="D126" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Mattia Penasa</t>
+          <t>Federico Manica</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Hellas Madonna</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
+          <t>iMontagna</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Daniel Ricciardo</t>
+        </is>
+      </c>
       <c r="D127" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Filippo Maraner</t>
+          <t>Andrea Pedrotti</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Hellas Madonna</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+          <t>iMontagna</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Medioman</t>
+        </is>
+      </c>
       <c r="D128" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Gabriel Melis</t>
+          <t>Daniel Pedrotti</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Demobusters</t>
+          <t>iMontagna</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Mano A Reazione</t>
+          <t>Cugino Di Medioman</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Riccardo Zeni</t>
+          <t>Marco Mutinelli</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Demobusters</t>
+          <t>iMontagna</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Terzo Porcellino</t>
+          <t>Urbano Il Vigile</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Samuele Rosà</t>
+          <t>Jacopo Chemini</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Demobusters</t>
+          <t>iMontagna</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Maranza</t>
+          <t>Teschio Fiammeggiante</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3614,40 +3478,44 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Christian Trainotti</t>
+          <t>Davide Bazzano</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SdrumALA</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
+          <t>iMontagna</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Il Talismano Bazooka</t>
+        </is>
+      </c>
       <c r="D132" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Daniele Dalbosco</t>
+          <t>Luca Lasta</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SdrumALA</t>
+          <t>La Contea FC</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -3656,19 +3524,19 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Davide Deimichei</t>
+          <t>Andrea Riolfatti</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SdrumALA</t>
+          <t>La Contea FC</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -3677,1962 +3545,2086 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Andrea Menolli</t>
+          <t>Alessandro Festi</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SdrumALA</t>
+          <t>La Contea FC</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Alessio Delli Compagni</t>
+          <t>Mattia Gerola</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SdrumALA</t>
+          <t>La Contea FC</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Christian Martinelli</t>
+          <t>Michele Eccel</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SdrumALA</t>
+          <t>La Contea FC</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Andreas Galli</t>
+          <t>Alessandro Gerola</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SdrumALA</t>
+          <t>La Contea FC</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>William Pedri</t>
+          <t>Davide Grigoletti</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>U.S. Guarna</t>
+          <t>La Contea FC</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Danny Giordani</t>
+          <t>Carlo Stedile</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>I Magnifici</t>
+          <t>MAI UNA GIOIA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Paculto Deprima</t>
+          <t>Welcome To Paradise</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Lorenzo Zuani</t>
+          <t>Thomas Debiasi</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>I Magnifici</t>
+          <t>MAI UNA GIOIA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Il Piediatra</t>
+          <t>Organizzatore Di Eventi Brutti</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Stefano Rosina</t>
+          <t>Nadir Chtioui</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Fc Wanda Tim</t>
+          <t>MAI UNA GIOIA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Gpl</t>
+          <t>Casablanca</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Tommaso Caliari</t>
+          <t>Randy Cobbinah</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>RSA United</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
+          <t>MAI UNA GIOIA</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
       <c r="D143" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Mirko Raffaelli</t>
+          <t>Giacomo Gasparini</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>RSA United</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>MAI UNA GIOIA</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Iceman</t>
+        </is>
+      </c>
       <c r="D144" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Luca Lasta</t>
+          <t>Thomas Cavagna</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>La Contea FC</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+          <t>MAI UNA GIOIA</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Val Di Gresta</t>
+        </is>
+      </c>
       <c r="D145" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Andrea Riolfatti</t>
+          <t>Maickol Azocar</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>La Contea FC</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
+          <t>MAI UNA GIOIA</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Nastro Isolante</t>
+        </is>
+      </c>
       <c r="D146" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Jacopo Chemini</t>
+          <t>Stefano Mattioli</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>iMontagna</t>
+          <t>MAI UNA GIOIA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Teschio Fiammeggiante</t>
+          <t>Panchinaro D'oro</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Andrea Potrich</t>
+          <t>Leonardo Parisi</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>F.C. Julia</t>
+          <t>MediaserT</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Brasiliano Bianco</t>
+          <t>Il Fratello Di Ron Weasley</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Matteo Calcinardi</t>
+          <t>Stefano Pizzini</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>F.C. Sala Giardini</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
+          <t>MediaserT</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Neanderthal</t>
+        </is>
+      </c>
       <c r="D149" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Massimiliano Rossi</t>
+          <t>Andrea Anzelini</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>F.C. Sala Giardini</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
+          <t>MediaserT</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Tunnel Del Vento</t>
+        </is>
+      </c>
       <c r="D150" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Giovanni Frizzera</t>
+          <t>Michele Parisi</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>F.C. Sala Giardini</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
+          <t>MediaserT</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Ron Weasley</t>
+        </is>
+      </c>
       <c r="D151" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Gianni Sala</t>
+          <t>Davide Raffaelli</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>F.C. Sala Giardini</t>
+          <t>MediaserT</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Gianluca Grignani</t>
+          <t>Giraffa Di Frassino</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Giovanni Di Meo</t>
+          <t>Matteo Mazzola</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Pinguini Trentini</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
+          <t>MediaserT</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Gennaro Bullo</t>
+        </is>
+      </c>
       <c r="D153" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Nicolò Gentile</t>
+          <t>Edoardo Pomarolli</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>F.C. Gorillaz</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
+          <t>Modium</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Il Bello Della Piof</t>
+        </is>
+      </c>
       <c r="D154" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Giovanni Bertolini</t>
+          <t>Marco Sartorelli</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Modium</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Paese Dei Balocchi</t>
+          <t>Playboy Della Busa</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Alessandro Ruele</t>
+          <t>Federico Pomarolli</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>F.C. Gorillaz</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
+          <t>Modium</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Principe Guerriero</t>
+        </is>
+      </c>
       <c r="D156" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Simone Miorelli</t>
+          <t>Andrea Bertolini</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SBARX</t>
+          <t>Modium</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Tega</t>
+          <t>Bomber Berto</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Francesco Amadori</t>
+          <t>Riccardo Versini</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Fc Wanda Tim</t>
+          <t>Modium</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Gasolio Artico</t>
+          <t>Pertica Della Piof</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Roberto Barozzi</t>
+          <t>Luca Barozzi</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Demobusters</t>
+          <t>Modium</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Divin Codino</t>
+          <t>Lupin</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Nicola Bianchi</t>
+          <t>Matteo Lanaro</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Herta Vernello</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
+          <t>Modium</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Il Cacciatore Del Sole</t>
+        </is>
+      </c>
       <c r="D160" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Guglielmo Caroli</t>
+          <t>Wilson Bona</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>I Magnifici</t>
+          <t>Nazionale Ferrovieri</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Ivan Bogdanov</t>
+          <t>El Patron Di Trenitalia</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Emanuele Valduga</t>
+          <t>Davide Anderloni</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Fc Wanda Tim</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Fiammifero</t>
-        </is>
-      </c>
+          <t>Nazionale Ferrovieri</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Ivan Borella</t>
+          <t>Armando Renzetti</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Nazionale Ferrovieri</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Alberto Simoncelli</t>
+          <t>Simone Giovinazzi</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>I Magnifici</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Iginio Massari</t>
-        </is>
-      </c>
+          <t>Nazionale Ferrovieri</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Elia Barozzi</t>
+          <t>Davide Sanetti</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>I Magnifici</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Bjorn Borg</t>
-        </is>
-      </c>
+          <t>Nazionale Ferrovieri</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Simone Schonsberg</t>
+          <t>Francesco Modena</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>I Magnifici</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Polis-tirolo</t>
-        </is>
-      </c>
+          <t>Nazionale Ferrovieri</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Mattia Spagnolli</t>
+          <t>Fabio Daves</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Fc Wanda Tim</t>
+          <t>Nazionale Ferrovieri</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Dottor Nowzaradan</t>
+          <t>Non Se Lo Ricorda Ma Lo Ha</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Luca Pozzati</t>
+          <t>Andrea Bellini</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>RSA United</t>
+          <t>Nazionale Ferrovieri</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Alessandro Festi</t>
+          <t>Luca Marchesi</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>La Contea FC</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr"/>
+          <t>Nazionale Ferrovieri</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Non Se Lo Ricorda Ma Lo Ha</t>
+        </is>
+      </c>
       <c r="D169" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Mattia Gerola</t>
+          <t>Leonardo Fedrigotti</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>La Contea FC</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr"/>
+          <t>Nazionale Ferrovieri</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Il Boscaiolo Ledrense</t>
+        </is>
+      </c>
       <c r="D170" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Michele Eccel</t>
+          <t>Lorenzo Casari</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>La Contea FC</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr"/>
+          <t>Nazionale Ferrovieri</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Il Treno Ferma A Peri</t>
+        </is>
+      </c>
       <c r="D171" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Alessandro Gerola</t>
+          <t>Alessio Farinati</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>La Contea FC</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr"/>
+          <t>Pinguini Trentini</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Proteina</t>
+        </is>
+      </c>
       <c r="D172" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Davide Grigoletti</t>
+          <t>Davide Manica</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>La Contea FC</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr"/>
+          <t>Pinguini Trentini</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Pala Eolica</t>
+        </is>
+      </c>
       <c r="D173" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Riccardo Barbiero</t>
+          <t>Matteo Pilati</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Sughi ebbasta</t>
+          <t>Pinguini Trentini</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Alabarda Spaziale</t>
+          <t>Ponzio Pilati</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Davide Bazzano</t>
+          <t>Matteo Brigo</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>iMontagna</t>
+          <t>Pinguini Trentini</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Il Talismano Bazooka</t>
+          <t>Euro Brigo</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Thomas Perenzoni</t>
+          <t>Enrico Bordignon</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CGB Gamberoni</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr"/>
+          <t>Pinguini Trentini</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Ormone Impazzito</t>
+        </is>
+      </c>
       <c r="D176" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Halzyd Pupuleku</t>
+          <t>Andrea Aste</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>F.C. Sala Giardini</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr"/>
+          <t>Pinguini Trentini</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>3 Ombre</t>
+        </is>
+      </c>
       <c r="D177" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Wilson Bona</t>
+          <t>Andrea Manfredi</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Nazionale Ferrovieri</t>
+          <t>Pinguini Trentini</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>El Patron Di Trenitalia</t>
+          <t>Psyco</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Federico Rippa</t>
+          <t>Giovanni Di Meo</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Vigili del Fusto</t>
+          <t>Pinguini Trentini</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Luca Morin</t>
+          <t>Nicola Togni</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Vigili del Fusto</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr"/>
+          <t>RSA United</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Circo Togni</t>
+        </is>
+      </c>
       <c r="D180" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Jacopo Zecchinelli</t>
+          <t>Alessandro Fait</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Vigili del Fusto</t>
+          <t>RSA United</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Er Mutanda</t>
+          <t>Fait Club</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Davide Zoara</t>
+          <t>Matteo Zanini</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Vigili del Fusto</t>
+          <t>RSA United</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Sturmtruppen</t>
+          <t>Il Meccanico</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Fabio Battistotti</t>
+          <t>Andrea Togni</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Vigili del Fusto</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Jeremy Wade</t>
-        </is>
-      </c>
+          <t>RSA United</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Andrea Di Filippo</t>
+          <t>Tommaso Caliari</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Vigili del Fusto</t>
+          <t>RSA United</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Nicola Dalledonne</t>
+          <t>Mirko Raffaelli</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Vigili del Fusto</t>
+          <t>RSA United</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Francesco Cristoforetti</t>
+          <t>Luca Pozzati</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Vigili del Fusto</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Black Hole</t>
-        </is>
-      </c>
+          <t>RSA United</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Alberto Curcio</t>
+          <t>Matteo Zanlucchi</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Vigili del Fusto</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr"/>
+          <t>SBARX</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Biker Mice</t>
+        </is>
+      </c>
       <c r="D187" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Leonardo Trinco</t>
+          <t>Niccolò Orsi</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Vigili del Fusto</t>
+          <t>SBARX</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Corpo Nazionale</t>
+          <t>Jj4</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Matteo Gatti</t>
+          <t>Samuele Kettamier</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Demobusters</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Soldatino Di Piombo</t>
-        </is>
-      </c>
+          <t>SBARX</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Daniele Ruzzenenti</t>
+          <t>Alessio Zandonai</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Demobusters</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Hard Disk</t>
-        </is>
-      </c>
+          <t>SBARX</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Lorenzo Scottini</t>
+          <t>Davide Fontana</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Demobusters</t>
+          <t>SBARX</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Eldorado Shomurodov</t>
+          <t>Ginew</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Federico Baita</t>
+          <t>Nicholas Marzadro</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>A.C. Denti</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr"/>
+          <t>SBARX</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Sgnappa Secca</t>
+        </is>
+      </c>
       <c r="D192" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Nicolò Marzari</t>
+          <t>Simone Miorelli</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>A.C. Denti</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr"/>
+          <t>SBARX</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Tega</t>
+        </is>
+      </c>
       <c r="D193" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Mario Grifeo</t>
+          <t>Christian Trainotti</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>A.C. Denti</t>
+          <t>SdrumALA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Maverick Bertolini</t>
+          <t>Daniele Dalbosco</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>A.C. Denti</t>
+          <t>SdrumALA</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Michael Bertè</t>
+          <t>Davide Deimichei</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>A.C. Denti</t>
+          <t>SdrumALA</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Matteo Tatarella</t>
+          <t>Andrea Menolli</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Bayern Mona</t>
+          <t>SdrumALA</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Francesco Pizzini</t>
+          <t>Alessio Delli Compagni</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Bayern Mona</t>
+          <t>SdrumALA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Nicoló Gelmini</t>
+          <t>Christian Martinelli</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Bayern Mona</t>
+          <t>SdrumALA</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Davide Sannicoló</t>
+          <t>Andreas Galli</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Bayern Mona</t>
+          <t>SdrumALA</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Paolo Salvetti</t>
+          <t>Mattia Baldessarini</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Bayern Mona</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr"/>
+          <t>Shark Attack</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>L’assassino Cerebrale</t>
+        </is>
+      </c>
       <c r="D201" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Marco Bertolini</t>
+          <t>Leonardo Viola</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Fc Wanda Tim</t>
+          <t>Shark Attack</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Macchia Di Gasolio</t>
+          <t>Uomo Informe 2.0</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Lorenzo Canali</t>
+          <t>Mattia Festi</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Herta Vernello</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
+          <t>Shark Attack</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Plastic Man</t>
+        </is>
+      </c>
       <c r="D203" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Giacomo Bongiovanni</t>
+          <t>Alberto Cerisara</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Herta Vernello</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
+          <t>Shark Attack</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>L’uomo Che Ha Mangiato Justin Bieber</t>
+        </is>
+      </c>
       <c r="D204" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Oriam Galli</t>
+          <t>Gabriele Brentari</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Herta Vernello</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
+          <t>Shark Attack</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Mocio Vileda</t>
+        </is>
+      </c>
       <c r="D205" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Alessandro Tengattini</t>
+          <t>Luca Giordani</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Herta Vernello</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr"/>
+          <t>Shark Attack</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Lo Chef Più In Forma D’europa</t>
+        </is>
+      </c>
       <c r="D206" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Rivjo Fiora</t>
+          <t>Federico Ignaccolo</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Herta Vernello</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr"/>
+          <t>Sughi ebbasta</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Fidel - Cerci Della Busa</t>
+        </is>
+      </c>
       <c r="D207" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Richard Spagnolli</t>
+          <t>Luca Tonolli</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FC Schalke 104</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr"/>
+          <t>Sughi ebbasta</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Mark Renton</t>
+        </is>
+      </c>
       <c r="D208" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Alessio Giordano</t>
+          <t>Federico Leonardi</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FC Schalke 104</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr"/>
+          <t>Sughi ebbasta</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Pan Carrè</t>
+        </is>
+      </c>
       <c r="D209" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Filippo Bais</t>
+          <t>Daniele Feltrinelli</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FC Schalke 104</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr"/>
+          <t>Sughi ebbasta</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Transiberiana</t>
+        </is>
+      </c>
       <c r="D210" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Andrea Amendola</t>
+          <t>Emanuele Miorandi</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FC Schalke 104</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr"/>
+          <t>Sughi ebbasta</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Re Di Bastoni</t>
+        </is>
+      </c>
       <c r="D211" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Pietro Di Liberto</t>
+          <t>Michele Leonardi</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FC Schalke 104</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr"/>
+          <t>Sughi ebbasta</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Pesto Tigullio</t>
+        </is>
+      </c>
       <c r="D212" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Antonio Dominici</t>
+          <t>Riccardo Barbiero</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FC Schalke 104</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr"/>
+          <t>Sughi ebbasta</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Alabarda Spaziale</t>
+        </is>
+      </c>
       <c r="D213" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Davide Ganganelli</t>
+          <t>Matteo Diener</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FC Schalke 104</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr"/>
+          <t>U.S. Guarna</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Nemico Del Popolo</t>
+        </is>
+      </c>
       <c r="D214" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Lapo Pinzi</t>
+          <t>Gober Andrea</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FC Schalke 104</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr"/>
+          <t>U.S. Guarna</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Scintillio</t>
+        </is>
+      </c>
       <c r="D215" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Davide Anderloni</t>
+          <t>Riccardo Zaffoni</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Nazionale Ferrovieri</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr"/>
+          <t>U.S. Guarna</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Lugherim</t>
+        </is>
+      </c>
       <c r="D216" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Armando Renzetti</t>
+          <t>Elia Battisti</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Nazionale Ferrovieri</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr"/>
+          <t>U.S. Guarna</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Boiler</t>
+        </is>
+      </c>
       <c r="D217" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>PORTIERE</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Simone Giovinazzi</t>
+          <t>Marco Heidempergher</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nazionale Ferrovieri</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr"/>
+          <t>U.S. Guarna</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Candalporco</t>
+        </is>
+      </c>
       <c r="D218" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Davide Sanetti</t>
+          <t>Federico Nicolodi</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nazionale Ferrovieri</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr"/>
+          <t>U.S. Guarna</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Notti Magiche</t>
+        </is>
+      </c>
       <c r="D219" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Francesco Modena</t>
+          <t>Martino Tamoni</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Nazionale Ferrovieri</t>
+          <t>U.S. Guarna</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Fabio Daves</t>
+          <t>William Pedri</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Nazionale Ferrovieri</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Non Se Lo Ricorda Ma Lo Ha</t>
-        </is>
-      </c>
+          <t>U.S. Guarna</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Andrea Bellini</t>
+          <t>Federico Rippa</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Nazionale Ferrovieri</t>
+          <t>Vigili del Fusto</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -5641,49 +5633,45 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Luca Marchesi</t>
+          <t>Luca Morin</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Nazionale Ferrovieri</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Non Se Lo Ricorda Ma Lo Ha</t>
-        </is>
-      </c>
+          <t>Vigili del Fusto</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
       <c r="D223" t="n">
         <v>5</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Leonardo Fedrigotti</t>
+          <t>Jacopo Zecchinelli</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Nazionale Ferrovieri</t>
+          <t>Vigili del Fusto</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Il Boscaiolo Ledrense</t>
+          <t>Er Mutanda</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -5691,24 +5679,24 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Lorenzo Casari</t>
+          <t>Davide Zoara</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Nazionale Ferrovieri</t>
+          <t>Vigili del Fusto</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Il Treno Ferma A Peri</t>
+          <t>Sturmtruppen</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -5716,40 +5704,44 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Gentian Capa</t>
+          <t>Fabio Battistotti</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FC. Stallions</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr"/>
+          <t>Vigili del Fusto</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Jeremy Wade</t>
+        </is>
+      </c>
       <c r="D226" t="n">
         <v>5</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Giorgio Raffaelli</t>
+          <t>Andrea Di Filippo</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FC. Stallions</t>
+          <t>Vigili del Fusto</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -5758,19 +5750,19 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Blendi Capa</t>
+          <t>Nicola Dalledonne</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FC. Stallions</t>
+          <t>Vigili del Fusto</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -5779,40 +5771,44 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Antonio Emma</t>
+          <t>Francesco Cristoforetti</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FC. Stallions</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr"/>
+          <t>Vigili del Fusto</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Black Hole</t>
+        </is>
+      </c>
       <c r="D229" t="n">
         <v>5</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Alessio Koleci</t>
+          <t>Alberto Curcio</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FC. Stallions</t>
+          <t>Vigili del Fusto</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -5821,28 +5817,32 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Movimento</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Kevin Vela</t>
+          <t>Leonardo Trinco</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FC. Stallions</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr"/>
+          <t>Vigili del Fusto</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Corpo Nazionale</t>
+        </is>
+      </c>
       <c r="D231" t="n">
         <v>5</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Portiere</t>
+          <t>MOVIMENTO</t>
         </is>
       </c>
     </row>
